--- a/biology/Médecine/École_du_personnel_paramédical_des_armées/École_du_personnel_paramédical_des_armées.xlsx
+++ b/biology/Médecine/École_du_personnel_paramédical_des_armées/École_du_personnel_paramédical_des_armées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_personnel_param%C3%A9dical_des_arm%C3%A9es</t>
+          <t>École_du_personnel_paramédical_des_armées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'École du personnel paramédical des armées (EPPA) est une école militaire du service de santé des armées qui forme notamment des infirmiers diplômés d'État (IDE) et des aides-soignants de l'armée française.
 L'EPPA était située à Toulon depuis 1990, date de sa création jusqu'en 2016 ou son transfert commence et s'achève en 2018 à Bron sur le site de l’École de santé des armées avec laquelle elle constitue les Écoles militaires de santé de Lyon Bron (EMSLB). La promotion « Joseph Puerta » (2016-2019) est la première promotion formée à Bron à sortir de l'école en 2019. Les étudiants militaires en soins infirmiers sont répartis depuis 2016 dans des IFSI de la métropole lyonnaise ; ils suivent en parallèle une formation militaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_personnel_param%C3%A9dical_des_arm%C3%A9es</t>
+          <t>École_du_personnel_paramédical_des_armées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps d’infirmiers permanents de l’armée de mer est créé en 1853 par décret impérial. Ils étaient alors formés dans les hôpitaux maritimes de Brest, Cherbourg, Rochefort et Toulon. L’école des infirmiers de la Marine nationale avait pour but de former les infirmiers qui à l’issue de leur formation rejoignaient les unités sur lesquelles ils étaient affectés.
 Le 4e régiment d’infanterie de marine libérant la caserne Grignant (actuel Hôpital d'instruction des armées Sainte-Anne), l’école des infirmiers de la marine s’y installe.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_personnel_param%C3%A9dical_des_arm%C3%A9es</t>
+          <t>École_du_personnel_paramédical_des_armées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Le drapeau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Drapeau est remis à l’Ecole le 28 avril 1992 des mains de Pierre Joxe, alors ministre de la défense.
-Son drapeau est décoré de la Croix de la Valeur militaire avec une palme, le 14 janvier 2012 à Toulon, au titre des opérations Licorne (Côte d'Ivoire), Pamir (Afghanistan) et Harmattan (Libye)[1].
+Son drapeau est décoré de la Croix de la Valeur militaire avec une palme, le 14 janvier 2012 à Toulon, au titre des opérations Licorne (Côte d'Ivoire), Pamir (Afghanistan) et Harmattan (Libye).
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_personnel_param%C3%A9dical_des_arm%C3%A9es</t>
+          <t>École_du_personnel_paramédical_des_armées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Promotions de l'École du personnel paramédical des armées (depuis 1998)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1998-2001 : Promotion Louis-Marie Lebreton
 1999-2002 : Promotion Jean Segalen
